--- a/mappingCorps/ig/StructureDefinition-fr-observation-survey-pannel-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-observation-survey-pannel-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-observation-survey-pannel-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-observation-survey-pannel-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-observation-survey-pannel-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-observation-survey-pannel-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-observation-survey-pannel-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-observation-survey-pannel-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-observation-survey-pannel-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-observation-survey-pannel-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,7 +650,7 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
+    <t>Code de l'ensemble des évaluations</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -3617,7 +3617,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
